--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFB170-7FBD-4906-8A59-98444439A5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641A3A3D-BC49-4B71-A5C5-18ECF9962BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <definedName name="_TTA1">#REF!</definedName>
     <definedName name="_TTD2">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOLETA PETRO'!$A$1:$J$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOLETA PETRO'!$A$1:$J$64</definedName>
     <definedName name="_xlnm.Database">'[4]TABLA TRINITY'!#REF!</definedName>
     <definedName name="BBB">#REF!</definedName>
     <definedName name="CCC">#REF!</definedName>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="1" shapeId="0" xr:uid="{A6D89CF5-C6B0-4DBD-B5EC-068487151440}">
+    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{A6D89CF5-C6B0-4DBD-B5EC-068487151440}">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="1" shapeId="0" xr:uid="{5B408D97-8F9C-4EAF-AAE1-369B5D1EE469}">
+    <comment ref="I20" authorId="1" shapeId="0" xr:uid="{5B408D97-8F9C-4EAF-AAE1-369B5D1EE469}">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{3A033252-2D62-4096-A05B-D411D8451DDF}">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{3A033252-2D62-4096-A05B-D411D8451DDF}">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{F92CAD90-F26E-4D0B-9F1D-3020ACB89D27}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{F92CAD90-F26E-4D0B-9F1D-3020ACB89D27}">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{7AAE1D16-C6FB-4B15-BC20-64147B1F2C32}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{7AAE1D16-C6FB-4B15-BC20-64147B1F2C32}">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{94C70887-68DF-4CA3-B9D6-2CAB24C13347}">
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{94C70887-68DF-4CA3-B9D6-2CAB24C13347}">
       <text>
         <r>
           <rPr>
@@ -612,31 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{AE375E57-3DEC-4FDB-A974-BB41DCB9B9D6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean Cabrera:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-volumen de GNA - Volumen de GNS equiv. De LGN </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{6A85D654-62CD-4F88-895A-48C7EECB2D0C}">
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{6A85D654-62CD-4F88-895A-48C7EECB2D0C}">
       <text>
         <r>
           <rPr>
@@ -660,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{ED5219FA-FF47-4A52-AA66-4F4B7B60E3D6}">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{ED5219FA-FF47-4A52-AA66-4F4B7B60E3D6}">
       <text>
         <r>
           <rPr>
@@ -684,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="0" shapeId="0" xr:uid="{E46402AE-7597-48CC-9D8F-9A064D7539FC}">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{E46402AE-7597-48CC-9D8F-9A064D7539FC}">
       <text>
         <r>
           <rPr>
@@ -708,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{83878B09-B46B-4DCB-A6A7-0DB8DB2ACF61}">
+    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{83878B09-B46B-4DCB-A6A7-0DB8DB2ACF61}">
       <text>
         <r>
           <rPr>
@@ -732,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{43ED6102-7EE4-4159-BA5F-61F5838D5D5B}">
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{43ED6102-7EE4-4159-BA5F-61F5838D5D5B}">
       <text>
         <r>
           <rPr>
@@ -761,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>FECHA:</t>
   </si>
@@ -784,12 +760,6 @@
   </si>
   <si>
     <t>(Gi)</t>
-  </si>
-  <si>
-    <t>PETROPERU (LOTE Z69)</t>
-  </si>
-  <si>
-    <t>PETROPERU(LOTE I)</t>
   </si>
   <si>
     <t>Total</t>
@@ -831,9 +801,6 @@
   </si>
   <si>
     <t>(Oi=NixLGN Total)</t>
-  </si>
-  <si>
-    <t>PETROPERU (LOTE I)</t>
   </si>
   <si>
     <t>Distribución de Gas Natural Seco</t>
@@ -890,9 +857,6 @@
     <t>(%)</t>
   </si>
   <si>
-    <t>PETROPERU (LOTE VI)</t>
-  </si>
-  <si>
     <t>Factor de conversión LOTE Z-69  (PCSD / Gal)</t>
   </si>
   <si>
@@ -939,18 +903,6 @@
 PETROPERU</t>
   </si>
   <si>
-    <t>todos los volumes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de la riqueza igual </t>
-  </si>
-  <si>
-    <t>BLANCO POR AHORA</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>{{Fecha}}</t>
   </si>
   <si>
@@ -968,16 +920,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="0.0000%"/>
-    <numFmt numFmtId="181" formatCode="0.0000000000000000000"/>
-    <numFmt numFmtId="182" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="184" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1078,7 +1030,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,24 +1045,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1196,19 +1136,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1269,62 +1196,62 @@
     </border>
   </borders>
   <cellStyleXfs count="12">
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="115">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="9" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="8" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="4" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1333,267 +1260,264 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="4" borderId="12" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="5" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1629,7 +1553,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1723098</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>213412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4270576" cy="342786"/>
@@ -1763,66 +1687,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>443345</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>41564</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1052945</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>129499</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="Imagen 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Firmas" spid="_x0000_s5170"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5472545" y="19618037"/>
-              <a:ext cx="2022764" cy="1320989"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:softEdge rad="31750"/>
-            </a:effectLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -30763,10 +30627,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.21875" defaultRowHeight="18" customHeight="1"/>
@@ -30793,62 +30657,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A1" s="95"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="113" t="s">
-        <v>52</v>
+      <c r="A1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
+        <v>48</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114" t="s">
-        <v>30</v>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105" t="s">
+        <v>27</v>
       </c>
-      <c r="J1" s="114"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:21" ht="28.15" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:21" ht="33" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="115" t="s">
-        <v>29</v>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="106" t="s">
+        <v>26</v>
       </c>
-      <c r="J3" s="115"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:21" ht="33" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="82" t="s">
-        <v>31</v>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="84" t="s">
+        <v>28</v>
       </c>
-      <c r="J4" s="83" t="s">
-        <v>32</v>
+      <c r="J4" s="85" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="49.15" customHeight="1">
@@ -30874,8 +30738,8 @@
       <c r="H6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="84" t="s">
-        <v>57</v>
+      <c r="I6" s="81" t="s">
+        <v>49</v>
       </c>
       <c r="J6" s="29"/>
     </row>
@@ -30906,7 +30770,7 @@
     <row r="9" spans="1:21">
       <c r="A9" s="33"/>
       <c r="B9" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="9"/>
@@ -30944,21 +30808,21 @@
     <row r="12" spans="1:21" s="2" customFormat="1" ht="34.15" customHeight="1">
       <c r="A12" s="33"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="110" t="s">
-        <v>34</v>
+      <c r="C12" s="100" t="s">
+        <v>31</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="85" t="s">
-        <v>58</v>
+      <c r="D12" s="100"/>
+      <c r="E12" s="82" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
-      <c r="H12" s="85" t="s">
-        <v>60</v>
+      <c r="H12" s="82" t="s">
+        <v>52</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>1</v>
@@ -30996,15 +30860,15 @@
     <row r="14" spans="1:21" s="2" customFormat="1" ht="34.15" customHeight="1">
       <c r="A14" s="33"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="110" t="s">
-        <v>36</v>
+      <c r="C14" s="100" t="s">
+        <v>33</v>
       </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="86" t="s">
-        <v>59</v>
+      <c r="D14" s="100"/>
+      <c r="E14" s="83" t="s">
+        <v>51</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -31043,18 +30907,18 @@
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="33"/>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="104" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="94" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
@@ -31073,21 +30937,21 @@
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" ht="89.45" customHeight="1">
       <c r="A17" s="33"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="105"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="I17" s="52" t="s">
         <v>13</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>15</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="1"/>
@@ -31102,23 +30966,23 @@
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="H18" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="I18" s="52" t="s">
         <v>18</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>20</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="1"/>
@@ -31133,18 +30997,14 @@
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" ht="22.9" customHeight="1">
       <c r="A19" s="33"/>
-      <c r="B19" s="54">
-        <v>1</v>
-      </c>
-      <c r="C19" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="85"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="82"/>
       <c r="J19" s="29"/>
       <c r="K19" s="1"/>
       <c r="N19" s="1"/>
@@ -31156,24 +31016,20 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="22.9" customHeight="1">
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="33"/>
-      <c r="B20" s="55">
-        <v>2</v>
+      <c r="B20" s="56"/>
+      <c r="C20" s="101" t="s">
+        <v>7</v>
       </c>
-      <c r="C20" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="85"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="82"/>
       <c r="J20" s="29"/>
       <c r="K20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -31181,24 +31037,18 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="22.9" customHeight="1">
+    <row r="21" spans="1:21" s="2" customFormat="1">
       <c r="A21" s="33"/>
-      <c r="B21" s="56">
-        <v>3</v>
-      </c>
-      <c r="C21" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="85"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="29"/>
       <c r="K21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -31206,60 +31056,50 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="1:21">
       <c r="A22" s="33"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="111" t="s">
-        <v>9</v>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" ht="21" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="98" t="s">
+        <v>35</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="58" t="s">
-        <v>53</v>
+    <row r="24" spans="1:21" ht="21" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="98" t="s">
+        <v>36</v>
       </c>
-      <c r="F23" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="33"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="44"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="62"/>
-      <c r="I24" s="28"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="29"/>
       <c r="L24" s="2"/>
       <c r="N24" s="2"/>
@@ -31268,83 +31108,77 @@
     <row r="25" spans="1:21" ht="21" customHeight="1">
       <c r="A25" s="33"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="108" t="s">
-        <v>39</v>
+      <c r="C25" s="98" t="s">
+        <v>37</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>55</v>
-      </c>
+      <c r="D25" s="98"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="30"/>
       <c r="J25" s="29"/>
       <c r="L25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:21" ht="21" customHeight="1">
+    <row r="26" spans="1:21">
       <c r="A26" s="33"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="29"/>
       <c r="L26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:21" ht="21" customHeight="1">
+    <row r="27" spans="1:21" ht="18" customHeight="1">
       <c r="A27" s="33"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="30"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="29"/>
       <c r="L27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="33"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="28"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="29"/>
       <c r="L28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="18" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+    <row r="29" spans="1:21">
+      <c r="A29" s="27"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="29"/>
       <c r="L29" s="2"/>
       <c r="N29" s="2"/>
@@ -31352,694 +31186,574 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="27"/>
-      <c r="B30" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="29"/>
       <c r="L30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="27"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+    <row r="31" spans="1:21" ht="30" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="89"/>
+      <c r="E31" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="29"/>
       <c r="L31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" ht="94.15" customHeight="1">
       <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="30"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="35"/>
       <c r="J32" s="29"/>
       <c r="L32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="30" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="97" t="s">
-        <v>2</v>
+    <row r="33" spans="1:18" ht="25.15" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="52" t="s">
+        <v>39</v>
       </c>
-      <c r="C33" s="98" t="s">
-        <v>3</v>
+      <c r="F33" s="52" t="s">
+        <v>6</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="97" t="s">
-        <v>22</v>
+      <c r="G33" s="53" t="s">
+        <v>23</v>
       </c>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="30"/>
+      <c r="H33" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="35"/>
       <c r="J33" s="29"/>
       <c r="L33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="94.15" customHeight="1">
+    <row r="34" spans="1:18" ht="22.9" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="29"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="43"/>
       <c r="L34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="25.15" customHeight="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="52" t="s">
-        <v>43</v>
+    <row r="35" spans="1:18" ht="19.899999999999999" customHeight="1">
+      <c r="A35" s="33"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="96" t="s">
+        <v>7</v>
       </c>
-      <c r="F35" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>27</v>
-      </c>
+      <c r="D35" s="97"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
       <c r="I35" s="35"/>
       <c r="J35" s="29"/>
       <c r="L35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="22.9" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="54">
-        <v>1</v>
+    <row r="36" spans="1:18">
+      <c r="A36" s="33"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="29"/>
+      <c r="L36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="33"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="29"/>
+      <c r="L37" s="8"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="33"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="29"/>
+      <c r="L38" s="8"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="27"/>
+      <c r="B39" s="36" t="s">
+        <v>40</v>
       </c>
-      <c r="C36" s="106" t="s">
+      <c r="C39" s="37"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="27"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="29"/>
+    </row>
+    <row r="41" spans="1:18" ht="12" customHeight="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:18" ht="34.15" customHeight="1">
+      <c r="A42" s="33"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="100"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:18" ht="25.15" customHeight="1">
+      <c r="A43" s="33"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" ht="33" customHeight="1">
+      <c r="A44" s="33"/>
+      <c r="B44" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="89"/>
+      <c r="E44" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="74"/>
+    </row>
+    <row r="45" spans="1:18" ht="33" customHeight="1">
+      <c r="A45" s="33"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="74"/>
+    </row>
+    <row r="46" spans="1:18" ht="25.15" customHeight="1">
+      <c r="A46" s="33"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="60"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="74"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" ht="22.9" customHeight="1">
+      <c r="A47" s="33"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="74"/>
+      <c r="L47" s="75"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" ht="19.899999999999999" customHeight="1">
+      <c r="A48" s="33"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="43"/>
-      <c r="L36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="74"/>
     </row>
-    <row r="37" spans="1:16" ht="22.9" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="54">
-        <v>2</v>
-      </c>
-      <c r="C37" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="43"/>
-      <c r="L37" s="2"/>
-      <c r="P37" s="2"/>
+    <row r="49" spans="1:18" ht="25.15" customHeight="1">
+      <c r="A49" s="33"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="29"/>
+      <c r="L49" s="2"/>
+      <c r="P49" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="22.9" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="54">
-        <v>3</v>
-      </c>
-      <c r="C38" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="43"/>
-      <c r="L38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="29"/>
-      <c r="L39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="33"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="29"/>
-      <c r="L40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="33"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="29"/>
-      <c r="L41" s="8"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="33"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="29"/>
-      <c r="L42" s="8"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="27"/>
-      <c r="B43" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="29"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="27"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:16" ht="12" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="29"/>
-    </row>
-    <row r="46" spans="1:16" ht="34.15" customHeight="1">
-      <c r="A46" s="33"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="29"/>
-    </row>
-    <row r="47" spans="1:16" ht="25.15" customHeight="1">
-      <c r="A47" s="33"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" ht="33" customHeight="1">
-      <c r="A48" s="33"/>
-      <c r="B48" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="104" t="s">
+    <row r="50" spans="1:18" ht="34.15" customHeight="1">
+      <c r="A50" s="33"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="104" t="s">
-        <v>47</v>
+      <c r="D50" s="98"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="41" t="s">
+        <v>25</v>
       </c>
-      <c r="G48" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="75"/>
-    </row>
-    <row r="49" spans="1:18" ht="33" customHeight="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="75"/>
-    </row>
-    <row r="50" spans="1:18" ht="25.15" customHeight="1">
-      <c r="A50" s="33"/>
-      <c r="B50" s="97"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="61"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="75"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="29"/>
+      <c r="L50" s="2"/>
+      <c r="P50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" ht="22.9" customHeight="1">
+    <row r="51" spans="1:18">
       <c r="A51" s="33"/>
-      <c r="B51" s="55">
-        <v>1</v>
-      </c>
-      <c r="C51" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="75"/>
-      <c r="L51" s="76"/>
-      <c r="R51" s="2"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="29"/>
+      <c r="L51" s="2"/>
+      <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:18" ht="22.9" customHeight="1">
+    <row r="52" spans="1:18">
       <c r="A52" s="33"/>
-      <c r="B52" s="55">
-        <v>2</v>
-      </c>
-      <c r="C52" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="75"/>
-      <c r="L52" s="76"/>
-      <c r="R52" s="2"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="29"/>
+      <c r="L52" s="2"/>
+      <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:18" ht="22.9" customHeight="1">
+    <row r="53" spans="1:18">
       <c r="A53" s="33"/>
-      <c r="B53" s="55">
-        <v>3</v>
-      </c>
-      <c r="C53" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="107"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="75"/>
-      <c r="L53" s="76"/>
-      <c r="R53" s="2"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="29"/>
+      <c r="L53" s="2"/>
+      <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="54" spans="1:18">
       <c r="A54" s="33"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="75"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="29"/>
+      <c r="L54" s="2"/>
+      <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:18" ht="25.15" customHeight="1">
+    <row r="55" spans="1:18">
       <c r="A55" s="33"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="E55" s="78"/>
       <c r="F55" s="28"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="77"/>
+      <c r="H55" s="79"/>
       <c r="I55" s="30"/>
       <c r="J55" s="29"/>
       <c r="L55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="34.15" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="108"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="78"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="29"/>
+    <row r="56" spans="1:18" ht="15">
+      <c r="A56" s="3"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="7"/>
       <c r="L56" s="2"/>
       <c r="P56" s="2"/>
-      <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="33"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="29"/>
+    <row r="57" spans="1:18" ht="15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="7"/>
       <c r="L57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="33"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="29"/>
+    <row r="58" spans="1:18" ht="15">
+      <c r="A58" s="3"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="7"/>
       <c r="L58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="33"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="29"/>
+    <row r="59" spans="1:18" ht="15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14"/>
       <c r="L59" s="2"/>
-      <c r="P59" s="2"/>
+      <c r="P59" s="15"/>
     </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="33"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="29"/>
+    <row r="60" spans="1:18" ht="18" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="19"/>
       <c r="L60" s="2"/>
+      <c r="M60" s="20"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="33"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="29"/>
+    <row r="61" spans="1:18" ht="18" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
       <c r="L61" s="2"/>
+      <c r="M61" s="20"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:18" ht="15">
+    <row r="62" spans="1:18" ht="18" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="7"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="19"/>
       <c r="L62" s="2"/>
-      <c r="P62" s="2"/>
+      <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="1:18" ht="15">
+    <row r="63" spans="1:18" ht="18" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="7"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="19"/>
       <c r="L63" s="2"/>
-      <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:18" ht="15">
-      <c r="A64" s="3"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="7"/>
+    <row r="64" spans="1:18" ht="18" customHeight="1">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="26"/>
       <c r="L64" s="2"/>
-      <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="15">
-      <c r="A65" s="3"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="14"/>
+    <row r="65" spans="12:12" ht="18" customHeight="1">
       <c r="L65" s="2"/>
-      <c r="P65" s="15"/>
-    </row>
-    <row r="66" spans="1:16" ht="18" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="19"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="20"/>
-      <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" ht="18" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="19"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="20"/>
-      <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" ht="18" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="19"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="21"/>
-    </row>
-    <row r="69" spans="1:16" ht="18" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="19"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:16" ht="18" customHeight="1">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:16" ht="18" customHeight="1">
-      <c r="L71" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="30">
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:H4"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:D35"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:D33"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:D18"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:D50"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="D61:G61"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoleBits\Villanueva\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641A3A3D-BC49-4B71-A5C5-18ECF9962BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31E80B3-16E2-42CD-9B6C-12241D0A09C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLETA PETRO" sheetId="7" r:id="rId1"/>
@@ -116,6 +116,8 @@
     <definedName name="DDDD">#REF!</definedName>
     <definedName name="DESPACHO">#REF!</definedName>
     <definedName name="DIARIO">#REF!</definedName>
+    <definedName name="DistribucionGasNaturalSeco_Items">'BOLETA PETRO'!$A$34:$H$35</definedName>
+    <definedName name="FactorAsignacionLiquidoGasNatural_Items">'BOLETA PETRO'!$A$19:$I$20</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH(#REF!,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GGG">#REF!</definedName>
     <definedName name="HORARIO">#REF!</definedName>
@@ -184,6 +186,7 @@
     <definedName name="TTRC">#REF!</definedName>
     <definedName name="VAR">#REF!</definedName>
     <definedName name="VENTAS">#REF!</definedName>
+    <definedName name="VolumenTransferidoRefineriaPorLote_Items">'BOLETA PETRO'!$A$47:$G$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -420,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="1" shapeId="0" xr:uid="{301A0CAB-212F-40A5-893D-EBED61F1B53D}">
+    <comment ref="G19" authorId="1" shapeId="0" xr:uid="{638A3571-390E-4122-9F9C-E48548FCF6CE}">
       <text>
         <r>
           <rPr>
@@ -444,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="1" shapeId="0" xr:uid="{77EE83A6-8029-47D8-BE4E-293CE7DF68D3}">
+    <comment ref="H19" authorId="1" shapeId="0" xr:uid="{2AF2E68E-A45D-46DC-B661-45F3007D9B69}">
       <text>
         <r>
           <rPr>
@@ -465,54 +468,6 @@
           </rPr>
           <t xml:space="preserve">
 42 es un número fijo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{A6D89CF5-C6B0-4DBD-B5EC-068487151440}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Meliton:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Promedio ponerado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I20" authorId="1" shapeId="0" xr:uid="{5B408D97-8F9C-4EAF-AAE1-369B5D1EE469}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Meliton:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SUMA SIMPLE DE LAS COLUMNAS</t>
         </r>
       </text>
     </comment>
@@ -737,7 +692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>FECHA:</t>
   </si>
@@ -760,9 +715,6 @@
   </si>
   <si>
     <t>(Gi)</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>MPCS</t>
@@ -822,24 +774,6 @@
   </si>
   <si>
     <t>(Bi)</t>
-  </si>
-  <si>
-    <t>Mpcsd</t>
-  </si>
-  <si>
-    <t>Versión / Fecha
-0 / 28-11-23</t>
-  </si>
-  <si>
-    <t>UNNA ENERGIA</t>
-  </si>
-  <si>
-    <t>Preparado por:    
-JPG</t>
-  </si>
-  <si>
-    <t>Aprobado por: 
-GOG</t>
   </si>
   <si>
     <t>Cuadro N° 1. Asignación de Volumen de Líquidos del Gas Natural (LGN) disgregado por lotes de PETROPERU</t>
@@ -903,9 +837,6 @@
 PETROPERU</t>
   </si>
   <si>
-    <t>{{Fecha}}</t>
-  </si>
-  <si>
     <t>{{VolumenTotalProduccion}}</t>
   </si>
   <si>
@@ -914,14 +845,83 @@
   <si>
     <t>{{ContenidoLgn}}</t>
   </si>
+  <si>
+    <t>{{PreparadoPor}}</t>
+  </si>
+  <si>
+    <t>{{AprobadoPor}}</t>
+  </si>
+  <si>
+    <t>{{Compania}}</t>
+  </si>
+  <si>
+    <t>{{DiaOperativo}}</t>
+  </si>
+  <si>
+    <t>Versión / Fecha
+{{VersionFecha}}</t>
+  </si>
+  <si>
+    <t>{{item.Item}}</t>
+  </si>
+  <si>
+    <t>{{item.Volumen}}</t>
+  </si>
+  <si>
+    <t>{{item.Riqueza}}</t>
+  </si>
+  <si>
+    <t>{{item.VolumenRiqueza}}</t>
+  </si>
+  <si>
+    <t>{{item.Factor}}</t>
+  </si>
+  <si>
+    <t>{{item.Asignacion}}</t>
+  </si>
+  <si>
+    <t>{{FactorConversionZ69}}</t>
+  </si>
+  <si>
+    <t>{{FactorConversionI}}</t>
+  </si>
+  <si>
+    <t>{{FactorConversionVi}}</t>
+  </si>
+  <si>
+    <t>{{item.Suministrador}}</t>
+  </si>
+  <si>
+    <t>{{item.VolumenGna}}</t>
+  </si>
+  <si>
+    <t>{{item.PoderCalorifico}}</t>
+  </si>
+  <si>
+    <t>{{item.VolumenGns}}</t>
+  </si>
+  <si>
+    <t>{{item.VolumenGnsd}}</t>
+  </si>
+  <si>
+    <t>{{VolumenTotalGns}}</t>
+  </si>
+  <si>
+    <t>{{item.VolumenFlare}}</t>
+  </si>
+  <si>
+    <t>{{item.VolumenGnsTransferido}}</t>
+  </si>
+  <si>
+    <t>{{VolumenTotalGnsFlare}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
@@ -931,7 +931,7 @@
     <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="173" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -1026,6 +1026,11 @@
     <font>
       <u/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1209,7 +1214,7 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1352,9 +1357,6 @@
     <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,9 +1382,6 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1403,9 +1402,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1430,6 +1426,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1477,10 +1506,10 @@
     <xf numFmtId="166" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,29 +1524,14 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -30629,93 +30643,93 @@
   </sheetPr>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.21875" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.21875" style="1"/>
-    <col min="12" max="12" width="18.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.21875" style="1"/>
+    <col min="1" max="1" width="6.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.1796875" style="1"/>
+    <col min="12" max="12" width="18.81640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1796875" style="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.21875" style="1"/>
+    <col min="17" max="17" width="3.1796875" style="1"/>
     <col min="18" max="18" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="3.21875" style="1"/>
+    <col min="19" max="16384" width="3.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A1" s="103"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
+    <row r="1" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="105"/>
+      <c r="J1" s="113"/>
     </row>
-    <row r="2" spans="1:21" ht="28.15" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
+    <row r="2" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="33" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="106" t="s">
-        <v>26</v>
+    <row r="3" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="114" t="s">
+        <v>50</v>
       </c>
-      <c r="J3" s="106"/>
+      <c r="J3" s="114"/>
     </row>
-    <row r="4" spans="1:21" ht="33" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="84" t="s">
-        <v>28</v>
+    <row r="4" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="81" t="s">
+        <v>46</v>
       </c>
-      <c r="J4" s="85" t="s">
-        <v>29</v>
+      <c r="J4" s="82" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="49.15" customHeight="1">
+    <row r="5" spans="1:21" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -30727,7 +30741,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:21" ht="31.5" customHeight="1">
+    <row r="6" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -30738,12 +30752,12 @@
       <c r="H6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="78" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:21" ht="31.5" customHeight="1">
+    <row r="7" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -30755,7 +30769,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -30767,10 +30781,10 @@
       <c r="I8" s="35"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="36" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="9"/>
@@ -30781,7 +30795,7 @@
       <c r="I9" s="38"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="10" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="36"/>
       <c r="C10" s="37"/>
@@ -30793,7 +30807,7 @@
       <c r="I10" s="38"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -30805,24 +30819,24 @@
       <c r="I11" s="40"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="34.15" customHeight="1">
+    <row r="12" spans="1:21" s="2" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="100" t="s">
-        <v>31</v>
+      <c r="C12" s="108" t="s">
+        <v>25</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="82" t="s">
-        <v>50</v>
+      <c r="D12" s="108"/>
+      <c r="E12" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
-      <c r="H12" s="82" t="s">
-        <v>52</v>
+      <c r="H12" s="79" t="s">
+        <v>45</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>1</v>
@@ -30837,7 +30851,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
+    <row r="13" spans="1:21" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="30"/>
       <c r="C13" s="44"/>
@@ -30857,18 +30871,18 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="34.15" customHeight="1">
+    <row r="14" spans="1:21" s="2" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="100" t="s">
-        <v>33</v>
+      <c r="C14" s="108" t="s">
+        <v>27</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="83" t="s">
-        <v>51</v>
+      <c r="D14" s="108"/>
+      <c r="E14" s="80" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -30883,7 +30897,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
+    <row r="15" spans="1:21" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -30905,20 +30919,20 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="94" t="s">
+      <c r="D16" s="97"/>
+      <c r="E16" s="102" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
@@ -30935,23 +30949,23 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="89.45" customHeight="1">
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="95"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="H17" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="I17" s="52" t="s">
         <v>12</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>13</v>
       </c>
       <c r="J17" s="51"/>
       <c r="K17" s="1"/>
@@ -30964,25 +30978,25 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="G18" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="H18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="I18" s="52" t="s">
         <v>17</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>18</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="1"/>
@@ -30995,16 +31009,30 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="22.9" customHeight="1">
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="82"/>
+      <c r="B19" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="79" t="s">
+        <v>56</v>
+      </c>
       <c r="J19" s="29"/>
       <c r="K19" s="1"/>
       <c r="N19" s="1"/>
@@ -31016,20 +31044,20 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="82"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="29"/>
       <c r="K20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -31037,15 +31065,15 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1">
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="28"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="45"/>
-      <c r="H21" s="59"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="45"/>
       <c r="J21" s="29"/>
       <c r="K21" s="1"/>
@@ -31056,29 +31084,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="60"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="28"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="61"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
       <c r="L22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="21" customHeight="1">
+    <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="98" t="s">
-        <v>35</v>
+      <c r="C23" s="106" t="s">
+        <v>29</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="112"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="86" t="s">
+        <v>57</v>
+      </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -31088,56 +31118,60 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="21" customHeight="1">
+    <row r="24" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="98" t="s">
-        <v>36</v>
+      <c r="C24" s="106" t="s">
+        <v>30</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="112"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="86" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
-      <c r="H24" s="62"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="30"/>
       <c r="J24" s="29"/>
       <c r="L24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="21" customHeight="1">
+    <row r="25" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="98" t="s">
-        <v>37</v>
+      <c r="C25" s="106" t="s">
+        <v>31</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="86" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
-      <c r="H25" s="62"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="30"/>
       <c r="J25" s="29"/>
       <c r="L25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="63"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="30"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="60"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="28"/>
       <c r="J26" s="29"/>
       <c r="L26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:21" ht="18" customHeight="1">
+    <row r="27" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -31152,10 +31186,10 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="9"/>
@@ -31169,7 +31203,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="36"/>
       <c r="C29" s="37"/>
@@ -31184,7 +31218,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -31199,43 +31233,43 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="30" customHeight="1">
+    <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="87" t="s">
-        <v>19</v>
+      <c r="D31" s="97"/>
+      <c r="E31" s="95" t="s">
+        <v>18</v>
       </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
       <c r="I31" s="30"/>
       <c r="J31" s="29"/>
       <c r="L31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:21" ht="94.15" customHeight="1">
+    <row r="32" spans="1:21" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="64" t="s">
-        <v>22</v>
+      <c r="B32" s="95"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="63" t="s">
+        <v>21</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="64" t="s">
-        <v>21</v>
+      <c r="G32" s="63" t="s">
+        <v>20</v>
       </c>
-      <c r="H32" s="65" t="s">
-        <v>20</v>
+      <c r="H32" s="64" t="s">
+        <v>19</v>
       </c>
       <c r="I32" s="35"/>
       <c r="J32" s="29"/>
@@ -31244,22 +31278,22 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:18" ht="25.15" customHeight="1">
+    <row r="33" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F33" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="29"/>
@@ -31268,71 +31302,85 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:18" ht="22.9" customHeight="1">
+    <row r="34" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="43"/>
+      <c r="B34" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="105"/>
+      <c r="E34" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="29"/>
       <c r="L34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:18" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
+    <row r="35" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="35"/>
       <c r="J35" s="29"/>
       <c r="L35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="33"/>
-      <c r="B36" s="67"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="69"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="35"/>
       <c r="J36" s="29"/>
       <c r="L36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="33"/>
-      <c r="B37" s="67"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="63"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="62"/>
       <c r="I37" s="35"/>
       <c r="J37" s="29"/>
       <c r="L37" s="8"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="33"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
       <c r="I38" s="40"/>
@@ -31340,10 +31388,10 @@
       <c r="L38" s="8"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="9"/>
@@ -31354,7 +31402,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="29"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="36"/>
       <c r="C40" s="37"/>
@@ -31366,7 +31414,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="29"/>
     </row>
-    <row r="41" spans="1:18" ht="12" customHeight="1">
+    <row r="41" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -31378,23 +31426,25 @@
       <c r="I41" s="9"/>
       <c r="J41" s="29"/>
     </row>
-    <row r="42" spans="1:18" ht="34.15" customHeight="1">
+    <row r="42" spans="1:18" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33"/>
       <c r="B42" s="28"/>
-      <c r="C42" s="100" t="s">
-        <v>41</v>
+      <c r="C42" s="108" t="s">
+        <v>35</v>
       </c>
-      <c r="D42" s="100"/>
-      <c r="E42" s="82"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="79" t="s">
+        <v>65</v>
+      </c>
       <c r="F42" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
       <c r="J42" s="29"/>
     </row>
-    <row r="43" spans="1:18" ht="25.15" customHeight="1">
+    <row r="43" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -31407,88 +31457,96 @@
       <c r="J43" s="29"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:18" ht="33" customHeight="1">
+    <row r="44" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
-      <c r="B44" s="87" t="s">
+      <c r="B44" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="94" t="s">
-        <v>42</v>
+      <c r="D44" s="97"/>
+      <c r="E44" s="102" t="s">
+        <v>36</v>
       </c>
-      <c r="F44" s="94" t="s">
-        <v>43</v>
+      <c r="F44" s="102" t="s">
+        <v>37</v>
       </c>
-      <c r="G44" s="94" t="s">
-        <v>44</v>
+      <c r="G44" s="102" t="s">
+        <v>38</v>
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="74"/>
+      <c r="J44" s="72"/>
     </row>
-    <row r="45" spans="1:18" ht="33" customHeight="1">
+    <row r="45" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="74"/>
+      <c r="J45" s="72"/>
     </row>
-    <row r="46" spans="1:18" ht="25.15" customHeight="1">
+    <row r="46" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="93"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F46" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="60"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="74"/>
+      <c r="J46" s="72"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="22.9" customHeight="1">
+    <row r="47" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="74"/>
-      <c r="L47" s="75"/>
+      <c r="B47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="105"/>
+      <c r="E47" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="59"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="72"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="48" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="97"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="60"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="59"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="74"/>
+      <c r="J48" s="72"/>
+      <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" ht="25.15" customHeight="1">
+    <row r="49" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -31496,102 +31554,102 @@
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="30"/>
-      <c r="H49" s="76"/>
+      <c r="H49" s="73"/>
       <c r="I49" s="30"/>
       <c r="J49" s="29"/>
       <c r="L49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:18" ht="34.15" customHeight="1">
+    <row r="50" spans="1:18" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33"/>
       <c r="B50" s="28"/>
-      <c r="C50" s="98" t="s">
-        <v>46</v>
+      <c r="C50" s="106" t="s">
+        <v>40</v>
       </c>
-      <c r="D50" s="98"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="41" t="s">
-        <v>25</v>
+      <c r="D50" s="106"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="117" t="s">
+        <v>68</v>
       </c>
-      <c r="G50" s="77"/>
-      <c r="H50" s="76"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="73"/>
       <c r="I50" s="30"/>
       <c r="J50" s="29"/>
       <c r="L50" s="2"/>
       <c r="P50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="33"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="78"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="28"/>
       <c r="G51" s="30"/>
-      <c r="H51" s="79"/>
+      <c r="H51" s="76"/>
       <c r="I51" s="30"/>
       <c r="J51" s="29"/>
       <c r="L51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="78"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="28"/>
       <c r="G52" s="30"/>
-      <c r="H52" s="79"/>
+      <c r="H52" s="76"/>
       <c r="I52" s="30"/>
       <c r="J52" s="29"/>
       <c r="L52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="33"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="78"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="28"/>
       <c r="G53" s="30"/>
-      <c r="H53" s="79"/>
+      <c r="H53" s="76"/>
       <c r="I53" s="30"/>
       <c r="J53" s="29"/>
       <c r="L53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="33"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="78"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="28"/>
       <c r="G54" s="30"/>
-      <c r="H54" s="79"/>
+      <c r="H54" s="76"/>
       <c r="I54" s="30"/>
       <c r="J54" s="29"/>
       <c r="L54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="33"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="78"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="28"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="79"/>
+      <c r="H55" s="76"/>
       <c r="I55" s="30"/>
       <c r="J55" s="29"/>
       <c r="L55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="15">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -31605,7 +31663,7 @@
       <c r="L56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:18" ht="15">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -31619,12 +31677,12 @@
       <c r="L57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:18" ht="15">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="80"/>
+      <c r="E58" s="77"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
       <c r="H58" s="12"/>
@@ -31633,7 +31691,7 @@
       <c r="L58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:18" ht="15">
+    <row r="59" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -31647,7 +31705,7 @@
       <c r="L59" s="2"/>
       <c r="P59" s="15"/>
     </row>
-    <row r="60" spans="1:18" ht="18" customHeight="1">
+    <row r="60" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -31662,16 +31720,16 @@
       <c r="M60" s="20"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:18" ht="18" customHeight="1">
+    <row r="61" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="99" t="s">
-        <v>47</v>
+      <c r="D61" s="107" t="s">
+        <v>41</v>
       </c>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="19"/>
@@ -31679,21 +31737,21 @@
       <c r="M61" s="20"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:18" ht="18" customHeight="1">
+    <row r="62" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="19"/>
       <c r="L62" s="2"/>
       <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="1:18" ht="18" customHeight="1">
+    <row r="63" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -31706,7 +31764,7 @@
       <c r="J63" s="19"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:18" ht="18" customHeight="1">
+    <row r="64" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -31719,11 +31777,11 @@
       <c r="J64" s="26"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="12:12" ht="18" customHeight="1">
+    <row r="65" spans="12:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="28">
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:H4"/>
@@ -31735,25 +31793,23 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:D18"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E31:H31"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="D62:G62"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:D46"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="G44:G45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="D61:G61"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnnaReportesOperativos2\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9354D69-740C-4B2E-9C4E-EE8BB5358BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8776BBD1-CBB8-456D-89ED-57D9C5C273CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLETA PETRO" sheetId="7" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <definedName name="_TTA1">#REF!</definedName>
     <definedName name="_TTD2">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOLETA PETRO'!$A$1:$J$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOLETA PETRO'!$B$1:$K$83</definedName>
     <definedName name="_xlnm.Database">'[4]TABLA TRINITY'!#REF!</definedName>
     <definedName name="BBB">#REF!</definedName>
     <definedName name="CCC">#REF!</definedName>
@@ -116,8 +116,8 @@
     <definedName name="DDDD">#REF!</definedName>
     <definedName name="DESPACHO">#REF!</definedName>
     <definedName name="DIARIO">#REF!</definedName>
-    <definedName name="DistribucionGasNaturalSeco_Items">'BOLETA PETRO'!$A$33:$H$34</definedName>
-    <definedName name="FactorAsignacionLiquidoGasNatural_Items">'BOLETA PETRO'!$A$19:$I$20</definedName>
+    <definedName name="DistribucionGasNaturalSeco_Items">'BOLETA PETRO'!$B$34:$I$35</definedName>
+    <definedName name="FactorAsignacionLiquidoGasNatural_Items">'BOLETA PETRO'!$B$19:$J$20</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH(#REF!,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GGG">#REF!</definedName>
     <definedName name="HORARIO">#REF!</definedName>
@@ -186,28 +186,19 @@
     <definedName name="TTRC">#REF!</definedName>
     <definedName name="VAR">#REF!</definedName>
     <definedName name="VENTAS">#REF!</definedName>
-    <definedName name="VolumenTransferidoRefineriaPorLote_Items">'BOLETA PETRO'!$A$45:$G$46</definedName>
+    <definedName name="VolumenTransferidoRefineriaPorLote_Items">'BOLETA PETRO'!$B$46:$H$47</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>FECHA:</t>
   </si>
@@ -361,12 +352,6 @@
     <t>{{ContenidoLgn}}</t>
   </si>
   <si>
-    <t>{{PreparadoPor}}</t>
-  </si>
-  <si>
-    <t>{{AprobadoPor}}</t>
-  </si>
-  <si>
     <t>{{Compania}}</t>
   </si>
   <si>
@@ -430,6 +415,20 @@
   <si>
     <t>{{VolumenTotalGnsFlare}}</t>
   </si>
+  <si>
+    <t>Preparado por:
+{{PreparadoPor}}</t>
+  </si>
+  <si>
+    <t>Aprobado por:
+{{AprobadoPor}}</t>
+  </si>
+  <si>
+    <t>Mpcs</t>
+  </si>
+  <si>
+    <t>Representante UNNA ENERGIA-PGT</t>
+  </si>
 </sst>
 </file>
 
@@ -442,10 +441,10 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0000%"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="172" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -530,6 +529,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -551,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -674,8 +680,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -689,10 +699,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -708,7 +729,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="111">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -739,7 +760,7 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="7" applyFill="1"/>
@@ -759,17 +780,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="11" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,7 +857,7 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,21 +882,6 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -902,39 +897,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,37 +934,55 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,8 +994,23 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -993,19 +1018,19 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1038,103 +1063,15 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1723098</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>213412</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4270576" cy="342786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4435818" y="20932192"/>
-          <a:ext cx="4270576" cy="342786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Representante UNNA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ENERGIA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-PGT</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>107338</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>94013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1320139</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>235528</xdr:rowOff>
@@ -1180,7 +1117,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BOL"/>
@@ -1221,7 +1158,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Correción 4606B"/>
@@ -1296,7 +1233,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ROMT"/>
@@ -22176,7 +22113,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABLAS"/>
@@ -22785,7 +22722,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -22882,7 +22819,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="XXXXXXX"/>
@@ -27965,7 +27902,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -28159,7 +28096,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FECHA"/>
@@ -28445,7 +28382,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COMPRAS DE GAS"/>
@@ -29805,7 +29742,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MOLLENDO DIARIO"/>
@@ -30128,276 +30065,276 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U83"/>
+  <dimension ref="B1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.21875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.21875" style="1"/>
-    <col min="12" max="12" width="18.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.21875" style="1"/>
-    <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.21875" style="1"/>
-    <col min="18" max="18" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="3.21875" style="1"/>
+    <col min="1" max="1" width="3.21875" style="1"/>
+    <col min="2" max="2" width="6.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.21875" style="1"/>
+    <col min="13" max="13" width="18.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.21875" style="1"/>
+    <col min="17" max="17" width="10" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.21875" style="1"/>
+    <col min="19" max="19" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="3.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A1" s="107"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108" t="s">
+    <row r="1" spans="2:22" ht="21.75" customHeight="1">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="88"/>
+    </row>
+    <row r="2" spans="2:22" ht="28.15" customHeight="1">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="2:22" ht="33" customHeight="1">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="109"/>
+      <c r="K3" s="89"/>
     </row>
-    <row r="2" spans="1:21" ht="28.15" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" ht="33" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="110" t="s">
-        <v>50</v>
+    <row r="4" spans="2:22" ht="33" customHeight="1">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="70" t="s">
+        <v>67</v>
       </c>
-      <c r="J3" s="110"/>
-    </row>
-    <row r="4" spans="1:21" ht="33" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>47</v>
+      <c r="K4" s="71" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="49.15" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+    <row r="5" spans="2:22" ht="49.15" customHeight="1">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="9"/>
+    <row r="6" spans="2:22" ht="31.5" customHeight="1">
+      <c r="B6" s="22"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="77" t="s">
-        <v>49</v>
+      <c r="J6" s="67" t="s">
+        <v>47</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="9"/>
+    <row r="7" spans="2:22" ht="31.5" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="29"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="33"/>
+    <row r="8" spans="2:22">
       <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="29"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+    <row r="9" spans="2:22">
+      <c r="B9" s="28"/>
+      <c r="C9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="29"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:21" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="9"/>
+    <row r="10" spans="2:22" ht="19.899999999999999" customHeight="1">
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="29"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:21" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="33"/>
+    <row r="11" spans="2:22" ht="19.899999999999999" customHeight="1">
       <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="29"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="106" t="s">
+    <row r="12" spans="2:22" s="2" customFormat="1" ht="34.15" customHeight="1">
+      <c r="B12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="G12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="H12" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="78" t="s">
+      <c r="I12" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="J12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="1"/>
-      <c r="O13" s="1"/>
+    <row r="13" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="106" t="s">
+    <row r="14" spans="2:22" s="2" customFormat="1" ht="34.15" customHeight="1">
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="85"/>
+      <c r="F14" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="G14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A15" s="33"/>
+    <row r="15" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
       <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="1"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -30405,29 +30342,29 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="95" t="s">
+    <row r="16" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="B16" s="28"/>
+      <c r="C16" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="D16" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="93"/>
+      <c r="F16" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="G16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -30435,28 +30372,28 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="89.45" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="52" t="s">
+    <row r="17" spans="2:22" s="2" customFormat="1" ht="89.45" customHeight="1">
+      <c r="B17" s="28"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="H17" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="I17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="J17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -30464,30 +30401,30 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="53" t="s">
+    <row r="18" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B18" s="28"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="G18" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="H18" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="I18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="J18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -30495,34 +30432,34 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="82" t="s">
+    <row r="19" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B19" s="28"/>
+      <c r="C19" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82" t="s">
+      <c r="H19" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="I19" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="78" t="s">
+      <c r="J19" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -30530,20 +30467,20 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="1"/>
-      <c r="N20" s="1"/>
+    <row r="20" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B20" s="28"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -30551,988 +30488,1013 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1">
-      <c r="A21" s="33"/>
+    <row r="21" spans="2:22" s="2" customFormat="1">
       <c r="B21" s="28"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="33"/>
+    <row r="22" spans="2:22">
       <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="M22" s="2"/>
       <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="21" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="94" t="s">
+    <row r="23" spans="2:22" ht="21" customHeight="1">
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="106"/>
+      <c r="F23" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="24"/>
+      <c r="M23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" ht="21" customHeight="1">
+      <c r="B24" s="28"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="29"/>
-      <c r="L23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="21" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="29"/>
-      <c r="L24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" ht="21" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="94" t="s">
+    <row r="25" spans="2:22" ht="21" customHeight="1">
+      <c r="B25" s="28"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="85" t="s">
-        <v>58</v>
+      <c r="E25" s="106"/>
+      <c r="F25" s="55" t="s">
+        <v>56</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="29"/>
-      <c r="L25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="24"/>
+      <c r="M25" s="2"/>
       <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="33"/>
+    <row r="26" spans="2:22">
       <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="L26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="M26" s="2"/>
       <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:21" ht="18" customHeight="1">
-      <c r="A27" s="33"/>
+    <row r="27" spans="2:22" ht="18" customHeight="1">
       <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="L27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="M27" s="2"/>
       <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="27"/>
-      <c r="B28" s="36" t="s">
+    <row r="28" spans="2:22">
+      <c r="B28" s="22"/>
+      <c r="C28" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="29"/>
-      <c r="L28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="24"/>
+      <c r="M28" s="2"/>
       <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="L29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" ht="30" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="94" t="s">
+    <row r="29" spans="2:22" ht="18" customHeight="1">
+      <c r="B29" s="22"/>
+      <c r="C29" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="D29" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="94" t="s">
+      <c r="E29" s="93"/>
+      <c r="F29" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="29"/>
-      <c r="L30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="M29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="94.15" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="63" t="s">
+    <row r="30" spans="2:22" ht="57" customHeight="1">
+      <c r="B30" s="22"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="G30" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="H30" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="I30" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="29"/>
-      <c r="L31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="24"/>
+      <c r="M30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="2:22" ht="39.75" customHeight="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="24"/>
+      <c r="M31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:21" ht="25.15" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="29"/>
-      <c r="L32" s="2"/>
-      <c r="N32" s="2"/>
+    <row r="32" spans="2:22" ht="25.5" customHeight="1">
+      <c r="B32" s="22"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="24"/>
+      <c r="M32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:18" ht="25.15" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="54" t="s">
-        <v>51</v>
+    <row r="33" spans="2:19">
+      <c r="B33" s="22"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="48" t="s">
+        <v>33</v>
       </c>
-      <c r="C33" s="104" t="s">
-        <v>60</v>
+      <c r="G33" s="47" t="s">
+        <v>6</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="82" t="s">
-        <v>61</v>
+      <c r="H33" s="47" t="s">
+        <v>22</v>
       </c>
-      <c r="F33" s="85" t="s">
-        <v>62</v>
+      <c r="I33" s="47" t="s">
+        <v>23</v>
       </c>
-      <c r="G33" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="29"/>
-      <c r="L33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="24"/>
+      <c r="M33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:18" ht="25.15" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="29"/>
-      <c r="L34" s="2"/>
-      <c r="N34" s="2"/>
+    <row r="34" spans="2:19" ht="25.15" customHeight="1">
+      <c r="B34" s="22"/>
+      <c r="C34" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="105"/>
+      <c r="F34" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="24"/>
+      <c r="M34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="33"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="29"/>
-      <c r="L35" s="2"/>
+    <row r="35" spans="2:19" ht="25.15" customHeight="1">
+      <c r="B35" s="22"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="24"/>
+      <c r="M35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="33"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="29"/>
-      <c r="L36" s="8"/>
+    <row r="36" spans="2:19" ht="25.15" customHeight="1">
+      <c r="B36" s="22"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="24"/>
+      <c r="M36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="27"/>
-      <c r="B37" s="36" t="s">
+    <row r="37" spans="2:19">
+      <c r="B37" s="28"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="24"/>
+      <c r="M37" s="8"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="22"/>
+      <c r="C38" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="29"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="27"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="29"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:18" ht="12" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+    <row r="39" spans="2:19">
+      <c r="B39" s="22"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="29"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:18" ht="34.15" customHeight="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="106" t="s">
+    <row r="40" spans="2:19" ht="12" customHeight="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="2:19" ht="34.15" customHeight="1">
+      <c r="B41" s="28"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="78" t="s">
+      <c r="E41" s="85"/>
+      <c r="F41" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="2:19" ht="25.15" customHeight="1">
+      <c r="B42" s="28"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:19" ht="33" customHeight="1">
+      <c r="B43" s="28"/>
+      <c r="C43" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="93"/>
+      <c r="F43" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="62"/>
+    </row>
+    <row r="44" spans="2:19" ht="33" customHeight="1">
+      <c r="B44" s="28"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="62"/>
+    </row>
+    <row r="45" spans="2:19" ht="25.15" customHeight="1">
+      <c r="B45" s="28"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="54"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="62"/>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="2:19" ht="25.15" customHeight="1">
+      <c r="B46" s="28"/>
+      <c r="C46" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="105"/>
+      <c r="F46" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="41" t="s">
-        <v>7</v>
+      <c r="I46" s="54"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="62"/>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="2:19" ht="25.9" customHeight="1">
+      <c r="B47" s="28"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="62"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="2:19" ht="25.15" customHeight="1">
+      <c r="B48" s="28"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="24"/>
+      <c r="M48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="2:17" ht="36.75" customHeight="1">
+      <c r="B49" s="28"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="110" t="s">
+        <v>40</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="29"/>
-    </row>
-    <row r="41" spans="1:18" ht="25.15" customHeight="1">
-      <c r="A41" s="33"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" ht="33" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="96"/>
-      <c r="E42" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="72"/>
-    </row>
-    <row r="43" spans="1:18" ht="33" customHeight="1">
-      <c r="A43" s="33"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="72"/>
-    </row>
-    <row r="44" spans="1:18" ht="25.15" customHeight="1">
-      <c r="A44" s="33"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="72"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" ht="25.15" customHeight="1">
-      <c r="A45" s="33"/>
-      <c r="B45" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="82" t="s">
+      <c r="E49" s="110"/>
+      <c r="F49" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="82" t="s">
-        <v>67</v>
+      <c r="G49" s="36" t="s">
+        <v>69</v>
       </c>
-      <c r="H45" s="59"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="72"/>
-      <c r="R45" s="2"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="24"/>
+      <c r="M49" s="2"/>
+      <c r="Q49" s="2"/>
     </row>
-    <row r="46" spans="1:18" ht="25.9" customHeight="1">
-      <c r="A46" s="33"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="72"/>
-      <c r="R46" s="2"/>
+    <row r="50" spans="2:17">
+      <c r="B50" s="28"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="24"/>
+      <c r="M50" s="2"/>
+      <c r="Q50" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="25.15" customHeight="1">
-      <c r="A47" s="33"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="29"/>
-      <c r="L47" s="2"/>
-      <c r="P47" s="2"/>
+    <row r="51" spans="2:17">
+      <c r="B51" s="28"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="24"/>
+      <c r="M51" s="2"/>
+      <c r="Q51" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="36.75" customHeight="1">
-      <c r="A48" s="33"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="29"/>
-      <c r="L48" s="2"/>
-      <c r="P48" s="2"/>
+    <row r="52" spans="2:17">
+      <c r="B52" s="28"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="24"/>
+      <c r="M52" s="2"/>
+      <c r="Q52" s="2"/>
     </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="33"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="29"/>
-      <c r="L49" s="2"/>
-      <c r="P49" s="2"/>
+    <row r="53" spans="2:17">
+      <c r="B53" s="28"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="24"/>
+      <c r="M53" s="2"/>
+      <c r="Q53" s="2"/>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="33"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="29"/>
-      <c r="L50" s="2"/>
-      <c r="P50" s="2"/>
+    <row r="54" spans="2:17">
+      <c r="B54" s="28"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="24"/>
+      <c r="M54" s="2"/>
+      <c r="Q54" s="2"/>
     </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="33"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="29"/>
-      <c r="L51" s="2"/>
-      <c r="P51" s="2"/>
+    <row r="55" spans="2:17">
+      <c r="B55" s="28"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="24"/>
+      <c r="M55" s="2"/>
+      <c r="Q55" s="2"/>
     </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="33"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="29"/>
-      <c r="L52" s="2"/>
-      <c r="P52" s="2"/>
+    <row r="56" spans="2:17">
+      <c r="B56" s="28"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="24"/>
+      <c r="M56" s="2"/>
+      <c r="Q56" s="2"/>
     </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="33"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="29"/>
-      <c r="L53" s="2"/>
-      <c r="P53" s="2"/>
+    <row r="57" spans="2:17">
+      <c r="B57" s="28"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="24"/>
+      <c r="M57" s="2"/>
+      <c r="Q57" s="2"/>
     </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="33"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="29"/>
-      <c r="L54" s="2"/>
-      <c r="P54" s="2"/>
+    <row r="58" spans="2:17">
+      <c r="B58" s="28"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="24"/>
+      <c r="M58" s="2"/>
+      <c r="Q58" s="2"/>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="33"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="29"/>
-      <c r="L55" s="2"/>
-      <c r="P55" s="2"/>
+    <row r="59" spans="2:17">
+      <c r="B59" s="28"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="24"/>
+      <c r="M59" s="2"/>
+      <c r="Q59" s="2"/>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="33"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="29"/>
-      <c r="L56" s="2"/>
-      <c r="P56" s="2"/>
+    <row r="60" spans="2:17">
+      <c r="B60" s="28"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="24"/>
+      <c r="M60" s="2"/>
+      <c r="Q60" s="2"/>
     </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="33"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="29"/>
-      <c r="L57" s="2"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="33"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="29"/>
-      <c r="L58" s="2"/>
-      <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="33"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="29"/>
-      <c r="L59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" ht="15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="7"/>
-      <c r="L60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" ht="15">
-      <c r="A61" s="3"/>
-      <c r="B61" s="6"/>
+    <row r="61" spans="2:17" ht="15">
+      <c r="B61" s="3"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="7"/>
-      <c r="L61" s="2"/>
-      <c r="P61" s="2"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="7"/>
+      <c r="M61" s="2"/>
+      <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
+    <row r="62" spans="2:17" ht="15">
+      <c r="B62" s="3"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="7"/>
-      <c r="L62" s="2"/>
-      <c r="P62" s="2"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="7"/>
+      <c r="M62" s="2"/>
+      <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
-      <c r="L63" s="2"/>
-      <c r="P63" s="15"/>
+    <row r="63" spans="2:17" ht="15">
+      <c r="B63" s="3"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="7"/>
+      <c r="M63" s="2"/>
+      <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="18" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="19"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="20"/>
-      <c r="P64" s="2"/>
+    <row r="64" spans="2:17" ht="15">
+      <c r="B64" s="3"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="14"/>
+      <c r="M64" s="2"/>
+      <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="1:16" ht="18" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="16"/>
+    <row r="65" spans="2:17" ht="18" customHeight="1">
+      <c r="B65" s="3"/>
       <c r="C65" s="16"/>
-      <c r="D65" s="103" t="s">
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="19"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="20"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="2:17" ht="18" customHeight="1">
+      <c r="B66" s="3"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="19"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="20"/>
-      <c r="P65" s="2"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="19"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="20"/>
+      <c r="Q66" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="18" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="19"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="21"/>
+    <row r="67" spans="2:17" ht="18" customHeight="1">
+      <c r="B67" s="3"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="19"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="21"/>
     </row>
-    <row r="67" spans="1:16" ht="18" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="19"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="21"/>
+    <row r="68" spans="2:17" ht="18" customHeight="1">
+      <c r="B68" s="3"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="19"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="21"/>
     </row>
-    <row r="68" spans="1:16" ht="18" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="19"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" ht="18" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="16"/>
+    <row r="69" spans="2:17" ht="18" customHeight="1">
+      <c r="B69" s="3"/>
       <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="18"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
-      <c r="J69" s="19"/>
-      <c r="L69" s="2"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="19"/>
+      <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="18" customHeight="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="16"/>
+    <row r="70" spans="2:17" ht="18" customHeight="1">
+      <c r="B70" s="3"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="18"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="19"/>
-      <c r="L70" s="2"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="19"/>
+      <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="18" customHeight="1">
-      <c r="A71" s="3"/>
-      <c r="B71" s="16"/>
+    <row r="71" spans="2:17" ht="18" customHeight="1">
+      <c r="B71" s="3"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="18"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
-      <c r="J71" s="19"/>
-      <c r="L71" s="2"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="19"/>
+      <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:16" ht="18" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="16"/>
+    <row r="72" spans="2:17" ht="18" customHeight="1">
+      <c r="B72" s="3"/>
       <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="18"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
-      <c r="J72" s="19"/>
-      <c r="L72" s="2"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="19"/>
+      <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="18" customHeight="1">
-      <c r="A73" s="3"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="19"/>
-      <c r="L73" s="2"/>
+    <row r="73" spans="2:17" ht="18" customHeight="1">
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="7"/>
+      <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="18" customHeight="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
-      <c r="L74" s="2"/>
+    <row r="74" spans="2:17" ht="18" customHeight="1">
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="7"/>
+      <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="18" customHeight="1">
-      <c r="A75" s="3"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="19"/>
-      <c r="L75" s="2"/>
+    <row r="75" spans="2:17" ht="18" customHeight="1">
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="7"/>
+      <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="18" customHeight="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="19"/>
-      <c r="L76" s="2"/>
+    <row r="76" spans="2:17" ht="18" customHeight="1">
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="7"/>
+      <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="18" customHeight="1">
-      <c r="A77" s="3"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="19"/>
-      <c r="L77" s="2"/>
+    <row r="77" spans="2:17" ht="18" customHeight="1">
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="7"/>
+      <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="18" customHeight="1">
-      <c r="A78" s="3"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="19"/>
-      <c r="L78" s="2"/>
+    <row r="78" spans="2:17" ht="18" customHeight="1">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="7"/>
+      <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:16" ht="18" customHeight="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="19"/>
-      <c r="L79" s="2"/>
+    <row r="79" spans="2:17" ht="18" customHeight="1">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="7"/>
+      <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:16" ht="18" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="19"/>
-      <c r="L80" s="2"/>
+    <row r="80" spans="2:17" ht="18" customHeight="1">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="19"/>
-      <c r="L81" s="2"/>
+    <row r="81" spans="2:13" ht="18" customHeight="1">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="26"/>
-      <c r="L82" s="2"/>
+    <row r="82" spans="2:13" ht="18" customHeight="1">
+      <c r="B82" s="4"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1">
-      <c r="L83" s="2"/>
+    <row r="83" spans="2:13" ht="18" customHeight="1">
+      <c r="B83" s="4"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="2:13" ht="18" customHeight="1">
+      <c r="M84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:H4"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D18"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:D44"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C48:D48"/>
+  <mergeCells count="33">
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:E45"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:E18"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:E33"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnnaReportesOperativos2\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8776BBD1-CBB8-456D-89ED-57D9C5C273CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2BE308-C4D4-459C-A23E-EA3A8B7CAB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLETA PETRO" sheetId="7" r:id="rId1"/>
@@ -955,34 +955,28 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,8 +988,23 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1012,25 +1021,16 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1113,11 +1113,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>669011</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>46324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5547F293-2878-4E23-B32D-8FF75FFCF8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6027964" y="19376571"/>
+          <a:ext cx="1512654" cy="1080467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BOL"/>
@@ -1158,7 +1208,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Correción 4606B"/>
@@ -1233,7 +1283,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ROMT"/>
@@ -22113,7 +22163,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABLAS"/>
@@ -22722,7 +22772,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -22819,7 +22869,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="XXXXXXX"/>
@@ -27902,7 +27952,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -28096,7 +28146,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FECHA"/>
@@ -28382,7 +28432,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COMPRAS DE GAS"/>
@@ -29742,7 +29792,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MOLLENDO DIARIO"/>
@@ -30067,8 +30117,8 @@
   </sheetPr>
   <dimension ref="B1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.21875" defaultRowHeight="18" customHeight="1"/>
@@ -30096,57 +30146,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="21.75" customHeight="1">
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="88"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="2:22" ht="28.15" customHeight="1">
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:22" ht="33" customHeight="1">
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="89" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="89"/>
+      <c r="K3" s="110"/>
     </row>
     <row r="4" spans="2:22" ht="33" customHeight="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="70" t="s">
         <v>67</v>
       </c>
@@ -30247,10 +30297,10 @@
     <row r="12" spans="2:22" s="2" customFormat="1" ht="34.15" customHeight="1">
       <c r="B12" s="28"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="68" t="s">
         <v>43</v>
       </c>
@@ -30299,10 +30349,10 @@
     <row r="14" spans="2:22" s="2" customFormat="1" ht="34.15" customHeight="1">
       <c r="B14" s="28"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="69" t="s">
         <v>44</v>
       </c>
@@ -30346,14 +30396,14 @@
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="28"/>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="96" t="s">
+      <c r="E16" s="89"/>
+      <c r="F16" s="94" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="44" t="s">
@@ -30376,10 +30426,10 @@
     </row>
     <row r="17" spans="2:22" s="2" customFormat="1" ht="89.45" customHeight="1">
       <c r="B17" s="28"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="97"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="47" t="s">
         <v>9</v>
       </c>
@@ -30407,7 +30457,7 @@
       <c r="B18" s="28"/>
       <c r="C18" s="92"/>
       <c r="D18" s="92"/>
-      <c r="E18" s="95"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="48" t="s">
         <v>13</v>
       </c>
@@ -30439,10 +30489,10 @@
       <c r="C19" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="103"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="72" t="s">
         <v>50</v>
       </c>
@@ -30472,8 +30522,8 @@
     <row r="20" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
       <c r="B20" s="28"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="48"/>
       <c r="G20" s="80"/>
       <c r="H20" s="47"/>
@@ -30527,10 +30577,10 @@
     <row r="23" spans="2:22" ht="21" customHeight="1">
       <c r="B23" s="28"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="106" t="s">
+      <c r="D23" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="106"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="55" t="s">
         <v>55</v>
       </c>
@@ -30546,10 +30596,10 @@
     <row r="24" spans="2:22" ht="21" customHeight="1">
       <c r="B24" s="28"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="106"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="55" t="s">
         <v>57</v>
       </c>
@@ -30565,10 +30615,10 @@
     <row r="25" spans="2:22" ht="21" customHeight="1">
       <c r="B25" s="28"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="106"/>
+      <c r="E25" s="101"/>
       <c r="F25" s="55" t="s">
         <v>56</v>
       </c>
@@ -30630,19 +30680,19 @@
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="22"/>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="93"/>
-      <c r="F29" s="98" t="s">
+      <c r="E29" s="89"/>
+      <c r="F29" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="25"/>
       <c r="K29" s="24"/>
       <c r="M29" s="2"/>
@@ -30651,19 +30701,19 @@
     </row>
     <row r="30" spans="2:22" ht="57" customHeight="1">
       <c r="B30" s="22"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="99" t="s">
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="99" t="s">
+      <c r="G30" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="99" t="s">
+      <c r="H30" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="102" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="25"/>
@@ -30674,13 +30724,13 @@
     </row>
     <row r="31" spans="2:22" ht="39.75" customHeight="1">
       <c r="B31" s="22"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
       <c r="J31" s="25"/>
       <c r="K31" s="24"/>
       <c r="M31" s="2"/>
@@ -30689,13 +30739,13 @@
     </row>
     <row r="32" spans="2:22" ht="25.5" customHeight="1">
       <c r="B32" s="22"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
       <c r="J32" s="25"/>
       <c r="K32" s="24"/>
       <c r="M32" s="2"/>
@@ -30706,7 +30756,7 @@
       <c r="B33" s="22"/>
       <c r="C33" s="92"/>
       <c r="D33" s="92"/>
-      <c r="E33" s="95"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="48" t="s">
         <v>33</v>
       </c>
@@ -30730,10 +30780,10 @@
       <c r="C34" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="105"/>
+      <c r="E34" s="98"/>
       <c r="F34" s="72" t="s">
         <v>59</v>
       </c>
@@ -30840,10 +30890,10 @@
     <row r="41" spans="2:19" ht="34.15" customHeight="1">
       <c r="B41" s="28"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="85"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="68" t="s">
         <v>63</v>
       </c>
@@ -30870,20 +30920,20 @@
     </row>
     <row r="43" spans="2:19" ht="33" customHeight="1">
       <c r="B43" s="28"/>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="93"/>
-      <c r="F43" s="96" t="s">
+      <c r="E43" s="89"/>
+      <c r="F43" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="96" t="s">
+      <c r="G43" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="96" t="s">
+      <c r="H43" s="94" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="23"/>
@@ -30892,21 +30942,21 @@
     </row>
     <row r="44" spans="2:19" ht="33" customHeight="1">
       <c r="B44" s="28"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="62"/>
     </row>
     <row r="45" spans="2:19" ht="25.15" customHeight="1">
       <c r="B45" s="28"/>
-      <c r="C45" s="98"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="92"/>
-      <c r="E45" s="95"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="48" t="s">
         <v>39</v>
       </c>
@@ -30926,10 +30976,10 @@
       <c r="C46" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="104" t="s">
+      <c r="D46" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="105"/>
+      <c r="E46" s="98"/>
       <c r="F46" s="72" t="s">
         <v>61</v>
       </c>
@@ -30947,8 +30997,8 @@
     <row r="47" spans="2:19" ht="25.9" customHeight="1">
       <c r="B47" s="28"/>
       <c r="C47" s="50"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="98"/>
       <c r="F47" s="72"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
@@ -30974,10 +31024,10 @@
     <row r="49" spans="2:17" ht="36.75" customHeight="1">
       <c r="B49" s="28"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="110"/>
+      <c r="E49" s="99"/>
       <c r="F49" s="82" t="s">
         <v>66</v>
       </c>
@@ -31220,12 +31270,12 @@
       <c r="B66" s="3"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="109" t="s">
+      <c r="E66" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
@@ -31237,12 +31287,12 @@
       <c r="B67" s="3"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
-      <c r="E67" s="107" t="s">
+      <c r="E67" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="F67" s="108"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
@@ -31462,21 +31512,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:E45"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:E18"/>
     <mergeCell ref="F16:F17"/>
@@ -31489,12 +31530,21 @@
     <mergeCell ref="I30:I32"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:I4"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:E45"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2BE308-C4D4-459C-A23E-EA3A8B7CAB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA10614-C597-4C5D-B397-9256DE336986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <definedName name="_TTA1">#REF!</definedName>
     <definedName name="_TTD2">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOLETA PETRO'!$B$1:$K$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOLETA PETRO'!$B$1:$K$70</definedName>
     <definedName name="_xlnm.Database">'[4]TABLA TRINITY'!#REF!</definedName>
     <definedName name="BBB">#REF!</definedName>
     <definedName name="CCC">#REF!</definedName>
@@ -116,7 +116,7 @@
     <definedName name="DDDD">#REF!</definedName>
     <definedName name="DESPACHO">#REF!</definedName>
     <definedName name="DIARIO">#REF!</definedName>
-    <definedName name="DistribucionGasNaturalSeco_Items">'BOLETA PETRO'!$B$34:$I$35</definedName>
+    <definedName name="DistribucionGasNaturalSeco_Items">'BOLETA PETRO'!$B$32:$I$33</definedName>
     <definedName name="FactorAsignacionLiquidoGasNatural_Items">'BOLETA PETRO'!$B$19:$J$20</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH(#REF!,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GGG">#REF!</definedName>
@@ -186,7 +186,7 @@
     <definedName name="TTRC">#REF!</definedName>
     <definedName name="VAR">#REF!</definedName>
     <definedName name="VENTAS">#REF!</definedName>
-    <definedName name="VolumenTransferidoRefineriaPorLote_Items">'BOLETA PETRO'!$B$46:$H$47</definedName>
+    <definedName name="VolumenTransferidoRefineriaPorLote_Items">'BOLETA PETRO'!$B$43:$H$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>FECHA:</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Volumen total de GNS flare (VGNSRF)</t>
   </si>
   <si>
-    <t>________________________________________________</t>
-  </si>
-  <si>
     <t>BOLETA DIARIA DE FISCALIZACIÓN
 PETROPERU</t>
   </si>
@@ -444,7 +441,7 @@
     <numFmt numFmtId="170" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="171" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -524,12 +521,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Calibri"/>
@@ -557,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -716,6 +707,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
@@ -731,7 +740,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="123">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -934,9 +943,6 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,28 +961,63 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="14" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,23 +1029,8 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,17 +1047,26 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1115,16 +1150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>669011</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>46324</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>124724</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>277645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1153,7 +1188,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6027964" y="19376571"/>
+          <a:off x="7470320" y="20737286"/>
           <a:ext cx="1512654" cy="1080467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30115,10 +30150,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V84"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.21875" defaultRowHeight="18" customHeight="1"/>
@@ -30146,62 +30181,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="21.75" customHeight="1">
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108" t="s">
-        <v>42</v>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="99" t="s">
+        <v>41</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109" t="s">
-        <v>46</v>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100" t="s">
+        <v>45</v>
       </c>
-      <c r="K1" s="109"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="2:22" ht="28.15" customHeight="1">
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:22" ht="33" customHeight="1">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="110" t="s">
-        <v>48</v>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="101" t="s">
+        <v>47</v>
       </c>
-      <c r="K3" s="110"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="2:22" ht="33" customHeight="1">
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
       <c r="J4" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="49.15" customHeight="1">
@@ -30228,7 +30263,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="24"/>
     </row>
@@ -30297,12 +30332,12 @@
     <row r="12" spans="2:22" s="2" customFormat="1" ht="34.15" customHeight="1">
       <c r="B12" s="28"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>1</v>
@@ -30311,7 +30346,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>1</v>
@@ -30349,12 +30384,12 @@
     <row r="14" spans="2:22" s="2" customFormat="1" ht="34.15" customHeight="1">
       <c r="B14" s="28"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>28</v>
@@ -30396,14 +30431,14 @@
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="28"/>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="94" t="s">
+      <c r="E16" s="105"/>
+      <c r="F16" s="108" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="44" t="s">
@@ -30426,10 +30461,10 @@
     </row>
     <row r="17" spans="2:22" s="2" customFormat="1" ht="89.45" customHeight="1">
       <c r="B17" s="28"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="95"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="47" t="s">
         <v>9</v>
       </c>
@@ -30453,11 +30488,11 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
+    <row r="18" spans="2:22" s="2" customFormat="1" ht="26.1" customHeight="1">
       <c r="B18" s="28"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="107"/>
       <c r="F18" s="48" t="s">
         <v>13</v>
       </c>
@@ -30484,29 +30519,29 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
+    <row r="19" spans="2:22" s="2" customFormat="1" ht="26.1" customHeight="1">
       <c r="B19" s="28"/>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="72" t="s">
+      <c r="G19" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="H19" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="I19" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="J19" s="68" t="s">
         <v>53</v>
-      </c>
-      <c r="J19" s="68" t="s">
-        <v>54</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="1"/>
@@ -30519,13 +30554,13 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="2:22" s="2" customFormat="1" ht="25.15" customHeight="1">
+    <row r="20" spans="2:22" s="2" customFormat="1" ht="26.1" customHeight="1">
       <c r="B20" s="28"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="48"/>
-      <c r="G20" s="80"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
@@ -30540,7 +30575,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="2:22" s="2" customFormat="1">
+    <row r="21" spans="2:22" s="2" customFormat="1" ht="26.1" customHeight="1">
       <c r="B21" s="28"/>
       <c r="C21" s="23"/>
       <c r="D21" s="25"/>
@@ -30559,49 +30594,53 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" ht="26.1" customHeight="1">
       <c r="B22" s="28"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="118"/>
+      <c r="F22" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="24"/>
       <c r="M22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:22" ht="21" customHeight="1">
+    <row r="23" spans="2:22" ht="26.1" customHeight="1">
       <c r="B23" s="28"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="101" t="s">
-        <v>29</v>
+      <c r="D23" s="118" t="s">
+        <v>30</v>
       </c>
-      <c r="E23" s="101"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="25"/>
       <c r="K23" s="24"/>
       <c r="M23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:22" ht="21" customHeight="1">
+    <row r="24" spans="2:22" ht="26.1" customHeight="1">
       <c r="B24" s="28"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="101" t="s">
-        <v>30</v>
+      <c r="D24" s="118" t="s">
+        <v>31</v>
       </c>
-      <c r="E24" s="101"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
@@ -30612,190 +30651,188 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:22" ht="21" customHeight="1">
+    <row r="25" spans="2:22" ht="26.1" customHeight="1">
       <c r="B25" s="28"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="25"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="24"/>
       <c r="M25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:22">
-      <c r="B26" s="28"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="23"/>
+    <row r="26" spans="2:22" ht="26.1" customHeight="1">
+      <c r="B26" s="22"/>
+      <c r="C26" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="24"/>
       <c r="M26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:22" ht="18" customHeight="1">
-      <c r="B27" s="28"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+    <row r="27" spans="2:22" ht="26.1" customHeight="1">
+      <c r="B27" s="22"/>
+      <c r="C27" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="105"/>
+      <c r="F27" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="24"/>
       <c r="M27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" ht="26.1" customHeight="1">
       <c r="B28" s="22"/>
-      <c r="C28" s="83" t="s">
-        <v>32</v>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="111" t="s">
+        <v>21</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="G28" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="24"/>
       <c r="M28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:22" ht="18" customHeight="1">
+    <row r="29" spans="2:22" ht="26.1" customHeight="1">
       <c r="B29" s="22"/>
-      <c r="C29" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
       <c r="J29" s="25"/>
       <c r="K29" s="24"/>
       <c r="M29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:22" ht="57" customHeight="1">
+    <row r="30" spans="2:22" ht="26.1" customHeight="1">
       <c r="B30" s="22"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="102" t="s">
-        <v>19</v>
-      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
       <c r="J30" s="25"/>
       <c r="K30" s="24"/>
       <c r="M30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:22" ht="39.75" customHeight="1">
+    <row r="31" spans="2:22" ht="26.1" customHeight="1">
       <c r="B31" s="22"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="J31" s="25"/>
       <c r="K31" s="24"/>
       <c r="M31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:22" ht="25.5" customHeight="1">
+    <row r="32" spans="2:22" ht="26.1" customHeight="1">
       <c r="B32" s="22"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="25"/>
+      <c r="C32" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="117"/>
+      <c r="F32" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="30"/>
       <c r="K32" s="24"/>
       <c r="M32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" ht="26.1" customHeight="1">
       <c r="B33" s="22"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="25"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="24"/>
       <c r="M33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="2:19" ht="25.15" customHeight="1">
+    <row r="34" spans="2:19" ht="26.1" customHeight="1">
       <c r="B34" s="22"/>
-      <c r="C34" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="72" t="s">
-        <v>62</v>
-      </c>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="30"/>
       <c r="K34" s="24"/>
       <c r="M34" s="2"/>
@@ -30803,237 +30840,235 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="2:19" ht="25.15" customHeight="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="30"/>
+    <row r="35" spans="2:19" ht="26.1" customHeight="1">
+      <c r="B35" s="28"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="24"/>
-      <c r="M35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="M35" s="8"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="2:19" ht="25.15" customHeight="1">
+    <row r="36" spans="2:19" ht="26.1" customHeight="1">
       <c r="B36" s="22"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="24"/>
-      <c r="M36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="2:19">
-      <c r="B37" s="28"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="24"/>
-      <c r="M37" s="8"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" s="22"/>
-      <c r="C38" s="31" t="s">
+      <c r="C36" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="2:19" ht="26.1" customHeight="1">
+      <c r="B37" s="22"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="2:19" ht="26.1" customHeight="1">
+      <c r="B38" s="28"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="97"/>
+      <c r="F38" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="61"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="2:19">
-      <c r="B39" s="22"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+    <row r="39" spans="2:19" ht="26.1" customHeight="1">
+      <c r="B39" s="28"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="24"/>
+      <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="2:19" ht="12" customHeight="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="24"/>
+    <row r="40" spans="2:19" ht="26.1" customHeight="1">
+      <c r="B40" s="28"/>
+      <c r="C40" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="105"/>
+      <c r="F40" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="62"/>
     </row>
-    <row r="41" spans="2:19" ht="34.15" customHeight="1">
+    <row r="41" spans="2:19" ht="26.1" customHeight="1">
       <c r="B41" s="28"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="100" t="s">
-        <v>35</v>
+      <c r="C41" s="110"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="62"/>
+    </row>
+    <row r="42" spans="2:19" ht="26.1" customHeight="1">
+      <c r="B42" s="28"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="48" t="s">
+        <v>39</v>
       </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="68" t="s">
+      <c r="G42" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="62"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="2:19" ht="26.1" customHeight="1">
+      <c r="B43" s="28"/>
+      <c r="C43" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="117"/>
+      <c r="F43" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="36" t="s">
-        <v>7</v>
+      <c r="H43" s="72" t="s">
+        <v>64</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="2:19" ht="25.15" customHeight="1">
-      <c r="B42" s="28"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="2:19" ht="33" customHeight="1">
-      <c r="B43" s="28"/>
-      <c r="C43" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="23"/>
       <c r="K43" s="62"/>
+      <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="2:19" ht="33" customHeight="1">
+    <row r="44" spans="2:19" ht="26.1" customHeight="1">
       <c r="B44" s="28"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="23"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="23"/>
       <c r="K44" s="62"/>
+      <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="2:19" ht="25.15" customHeight="1">
+    <row r="45" spans="2:19" ht="26.1" customHeight="1">
       <c r="B45" s="28"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="48" t="s">
-        <v>39</v>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="24"/>
+      <c r="M45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="2:19" ht="26.1" customHeight="1">
+      <c r="B46" s="28"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="119" t="s">
+        <v>40</v>
       </c>
-      <c r="G45" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="62"/>
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="2:19" ht="25.15" customHeight="1">
-      <c r="B46" s="28"/>
-      <c r="C46" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="98"/>
-      <c r="F46" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="72" t="s">
+      <c r="E46" s="119"/>
+      <c r="F46" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="62"/>
-      <c r="S46" s="2"/>
+      <c r="G46" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="24"/>
+      <c r="M46" s="2"/>
+      <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="2:19" ht="25.9" customHeight="1">
+    <row r="47" spans="2:19" ht="26.1" customHeight="1">
       <c r="B47" s="28"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="62"/>
-      <c r="S47" s="2"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="24"/>
+      <c r="M47" s="2"/>
+      <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="2:19" ht="25.15" customHeight="1">
+    <row r="48" spans="2:19" ht="26.1" customHeight="1">
       <c r="B48" s="28"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="23"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="63"/>
+      <c r="I48" s="65"/>
       <c r="J48" s="25"/>
       <c r="K48" s="24"/>
       <c r="M48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="2:17" ht="36.75" customHeight="1">
+    <row r="49" spans="1:17" ht="26.1" customHeight="1">
       <c r="B49" s="28"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="99"/>
-      <c r="F49" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="23"/>
       <c r="H49" s="25"/>
       <c r="I49" s="65"/>
       <c r="J49" s="25"/>
@@ -31041,510 +31076,339 @@
       <c r="M49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="2:17">
-      <c r="B50" s="28"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="24"/>
+    <row r="50" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B50" s="3"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="7"/>
       <c r="M50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="2:17">
-      <c r="B51" s="28"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="24"/>
+    <row r="51" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B51" s="3"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="7"/>
       <c r="M51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="2:17">
-      <c r="B52" s="28"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="24"/>
+    <row r="52" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B52" s="3"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="7"/>
       <c r="M52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="2:17">
-      <c r="B53" s="28"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="24"/>
+    <row r="53" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B53" s="3"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
       <c r="M53" s="2"/>
-      <c r="Q53" s="2"/>
+      <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17">
-      <c r="B54" s="28"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="24"/>
+    <row r="54" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B54" s="3"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="19"/>
       <c r="M54" s="2"/>
+      <c r="N54" s="20"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="2:17">
-      <c r="B55" s="28"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="24"/>
+    <row r="55" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B55" s="3"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
       <c r="M55" s="2"/>
+      <c r="N55" s="20"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="2:17">
-      <c r="B56" s="28"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="24"/>
+    <row r="56" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B56" s="3"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="19"/>
       <c r="M56" s="2"/>
-      <c r="Q56" s="2"/>
+      <c r="N56" s="21"/>
     </row>
-    <row r="57" spans="2:17">
-      <c r="B57" s="28"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="24"/>
+    <row r="57" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B57" s="3"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
       <c r="M57" s="2"/>
-      <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="2:17">
-      <c r="B58" s="28"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="24"/>
+    <row r="58" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B58" s="95"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="19"/>
       <c r="M58" s="2"/>
-      <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="2:17">
-      <c r="B59" s="28"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="24"/>
+    <row r="59" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B59" s="84"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="19"/>
       <c r="M59" s="2"/>
-      <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="2:17">
-      <c r="B60" s="28"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="24"/>
+    <row r="60" spans="1:17" ht="26.1" customHeight="1">
+      <c r="A60" s="85"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="7"/>
       <c r="M60" s="2"/>
-      <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="2:17" ht="15">
-      <c r="B61" s="3"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="6"/>
+    <row r="61" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B61" s="84"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="84"/>
       <c r="K61" s="7"/>
       <c r="M61" s="2"/>
-      <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="2:17" ht="15">
-      <c r="B62" s="3"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="6"/>
+    <row r="62" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B62" s="84"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="96"/>
       <c r="K62" s="7"/>
       <c r="M62" s="2"/>
-      <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="2:17" ht="15">
-      <c r="B63" s="3"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="12"/>
+    <row r="63" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B63" s="84"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="7"/>
       <c r="M63" s="2"/>
-      <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="2:17" ht="15">
-      <c r="B64" s="3"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="14"/>
+    <row r="64" spans="1:17" ht="26.1" customHeight="1">
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="85"/>
       <c r="M64" s="2"/>
-      <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17" ht="18" customHeight="1">
-      <c r="B65" s="3"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="19"/>
+    <row r="65" spans="2:13" ht="26.1" customHeight="1">
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="85"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="20"/>
-      <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="2:17" ht="18" customHeight="1">
-      <c r="B66" s="3"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="19"/>
+    <row r="66" spans="2:13" ht="26.1" customHeight="1">
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="85"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="20"/>
-      <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="2:17" ht="18" customHeight="1">
-      <c r="B67" s="3"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="19"/>
+    <row r="67" spans="2:13" ht="26.1" customHeight="1">
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="4"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="21"/>
     </row>
-    <row r="68" spans="2:17" ht="18" customHeight="1">
-      <c r="B68" s="3"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="19"/>
+    <row r="68" spans="2:13" ht="26.1" customHeight="1">
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="4"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="21"/>
     </row>
-    <row r="69" spans="2:17" ht="18" customHeight="1">
-      <c r="B69" s="3"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="19"/>
+    <row r="69" spans="2:13" ht="26.1" customHeight="1">
+      <c r="B69" s="84"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="18"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="2:17" ht="18" customHeight="1">
-      <c r="B70" s="3"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="19"/>
+    <row r="70" spans="2:13" ht="26.1" customHeight="1">
+      <c r="B70" s="84"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="18"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="2:17" ht="18" customHeight="1">
-      <c r="B71" s="3"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="19"/>
+    <row r="71" spans="2:13" ht="18" customHeight="1">
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
       <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="2:17" ht="18" customHeight="1">
-      <c r="B72" s="3"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="19"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="2:17" ht="18" customHeight="1">
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="7"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="2:17" ht="18" customHeight="1">
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="7"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="2:17" ht="18" customHeight="1">
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="7"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="2:17" ht="18" customHeight="1">
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="7"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="2:17" ht="18" customHeight="1">
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="7"/>
-      <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="2:17" ht="18" customHeight="1">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="7"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="2:17" ht="18" customHeight="1">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="7"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="2:17" ht="18" customHeight="1">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="2:13" ht="18" customHeight="1">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="2:13" ht="18" customHeight="1">
-      <c r="B82" s="4"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="2:13" ht="18" customHeight="1">
-      <c r="B83" s="4"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="2:13" ht="18" customHeight="1">
-      <c r="M84" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:E42"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:E18"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:E31"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:I4"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:E18"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:E33"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:E45"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D49:E49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA10614-C597-4C5D-B397-9256DE336986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED6CE63-2C73-442D-88E8-5AF3CAE38F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
   </bookViews>
@@ -952,9 +952,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -988,6 +985,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,8 +1065,8 @@
     <xf numFmtId="165" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -30152,8 +30152,8 @@
   </sheetPr>
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.21875" defaultRowHeight="18" customHeight="1"/>
@@ -30668,7 +30668,7 @@
     </row>
     <row r="26" spans="2:22" ht="26.1" customHeight="1">
       <c r="B26" s="22"/>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="81" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="32"/>
@@ -30826,9 +30826,9 @@
     </row>
     <row r="34" spans="2:19" ht="26.1" customHeight="1">
       <c r="B34" s="22"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -31021,7 +31021,7 @@
         <v>40</v>
       </c>
       <c r="E46" s="119"/>
-      <c r="F46" s="81" t="s">
+      <c r="F46" s="122" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="36" t="s">
@@ -31151,7 +31151,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="90"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="120"/>
       <c r="G55" s="120"/>
       <c r="H55" s="120"/>
@@ -31166,7 +31166,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="91"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="121" t="s">
         <v>69</v>
       </c>
@@ -31180,32 +31180,32 @@
     </row>
     <row r="57" spans="1:17" ht="26.1" customHeight="1">
       <c r="B57" s="3"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="89"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="88"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="K57" s="19"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:17" ht="26.1" customHeight="1">
-      <c r="B58" s="95"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="89"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="88"/>
       <c r="J58" s="18"/>
       <c r="K58" s="19"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:17" ht="26.1" customHeight="1">
-      <c r="B59" s="84"/>
+      <c r="B59" s="83"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
@@ -31218,21 +31218,21 @@
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:17" ht="26.1" customHeight="1">
-      <c r="A60" s="85"/>
-      <c r="B60" s="84"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="83"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="84"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="83"/>
       <c r="K60" s="7"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:17" ht="26.1" customHeight="1">
-      <c r="B61" s="84"/>
+      <c r="B61" s="83"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -31240,12 +31240,12 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="84"/>
+      <c r="J61" s="83"/>
       <c r="K61" s="7"/>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:17" ht="26.1" customHeight="1">
-      <c r="B62" s="84"/>
+      <c r="B62" s="83"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -31253,12 +31253,12 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="96"/>
+      <c r="J62" s="95"/>
       <c r="K62" s="7"/>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:17" ht="26.1" customHeight="1">
-      <c r="B63" s="84"/>
+      <c r="B63" s="83"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -31271,107 +31271,107 @@
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:17" ht="26.1" customHeight="1">
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="122"/>
-      <c r="L64" s="85"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="84"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="2:13" ht="26.1" customHeight="1">
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="85"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="84"/>
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="2:13" ht="26.1" customHeight="1">
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="85"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="84"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="2:13" ht="26.1" customHeight="1">
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
       <c r="K67" s="4"/>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="26.1" customHeight="1">
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
       <c r="K68" s="4"/>
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="2:13" ht="26.1" customHeight="1">
-      <c r="B69" s="84"/>
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
       <c r="K69" s="18"/>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="2:13" ht="26.1" customHeight="1">
-      <c r="B70" s="84"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="89"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
       <c r="K70" s="18"/>
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="2:13" ht="18" customHeight="1">
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
-      <c r="I71" s="86"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
       <c r="M71" s="2"/>
     </row>
   </sheetData>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaDiariaDeFiscalizacionPetroperu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED6CE63-2C73-442D-88E8-5AF3CAE38F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1777AA0-EEC1-46B8-80C0-E24391A4AFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{746EDAF0-EB7C-4CB9-A964-10001E2F47C3}"/>
   </bookViews>
@@ -990,34 +990,25 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,8 +1020,26 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1047,26 +1056,17 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1140,56 +1140,6 @@
         <a:xfrm>
           <a:off x="107338" y="94013"/>
           <a:ext cx="2424381" cy="1185455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>598713</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>124724</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>277645</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5547F293-2878-4E23-B32D-8FF75FFCF8F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7470320" y="20737286"/>
-          <a:ext cx="1512654" cy="1080467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30153,7 +30103,7 @@
   <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.21875" defaultRowHeight="18" customHeight="1"/>
@@ -30181,57 +30131,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="21.75" customHeight="1">
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="99" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="100"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="2:22" ht="28.15" customHeight="1">
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:22" ht="33" customHeight="1">
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="101" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="101"/>
+      <c r="K3" s="122"/>
     </row>
     <row r="4" spans="2:22" ht="33" customHeight="1">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
       <c r="J4" s="70" t="s">
         <v>66</v>
       </c>
@@ -30332,10 +30282,10 @@
     <row r="12" spans="2:22" s="2" customFormat="1" ht="34.15" customHeight="1">
       <c r="B12" s="28"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="97"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="68" t="s">
         <v>42</v>
       </c>
@@ -30384,10 +30334,10 @@
     <row r="14" spans="2:22" s="2" customFormat="1" ht="34.15" customHeight="1">
       <c r="B14" s="28"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="97"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="69" t="s">
         <v>43</v>
       </c>
@@ -30431,14 +30381,14 @@
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="28"/>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="108" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="105" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="44" t="s">
@@ -30461,10 +30411,10 @@
     </row>
     <row r="17" spans="2:22" s="2" customFormat="1" ht="89.45" customHeight="1">
       <c r="B17" s="28"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="109"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="47" t="s">
         <v>9</v>
       </c>
@@ -30490,9 +30440,9 @@
     </row>
     <row r="18" spans="2:22" s="2" customFormat="1" ht="26.1" customHeight="1">
       <c r="B18" s="28"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="107"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="48" t="s">
         <v>13</v>
       </c>
@@ -30524,10 +30474,10 @@
       <c r="C19" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="72" t="s">
         <v>49</v>
       </c>
@@ -30557,8 +30507,8 @@
     <row r="20" spans="2:22" s="2" customFormat="1" ht="26.1" customHeight="1">
       <c r="B20" s="28"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="48"/>
       <c r="G20" s="79"/>
       <c r="H20" s="47"/>
@@ -30597,10 +30547,10 @@
     <row r="22" spans="2:22" ht="26.1" customHeight="1">
       <c r="B22" s="28"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="118"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="55" t="s">
         <v>54</v>
       </c>
@@ -30616,10 +30566,10 @@
     <row r="23" spans="2:22" ht="26.1" customHeight="1">
       <c r="B23" s="28"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="118"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="55" t="s">
         <v>56</v>
       </c>
@@ -30635,10 +30585,10 @@
     <row r="24" spans="2:22" ht="26.1" customHeight="1">
       <c r="B24" s="28"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="118"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="55" t="s">
         <v>55</v>
       </c>
@@ -30685,19 +30635,19 @@
     </row>
     <row r="27" spans="2:22" ht="26.1" customHeight="1">
       <c r="B27" s="22"/>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="110" t="s">
+      <c r="E27" s="100"/>
+      <c r="F27" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
       <c r="J27" s="25"/>
       <c r="K27" s="24"/>
       <c r="M27" s="2"/>
@@ -30706,19 +30656,19 @@
     </row>
     <row r="28" spans="2:22" ht="26.1" customHeight="1">
       <c r="B28" s="22"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="111" t="s">
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="111" t="s">
+      <c r="G28" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="111" t="s">
+      <c r="H28" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="111" t="s">
+      <c r="I28" s="114" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="25"/>
@@ -30729,13 +30679,13 @@
     </row>
     <row r="29" spans="2:22" ht="26.1" customHeight="1">
       <c r="B29" s="22"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
       <c r="J29" s="25"/>
       <c r="K29" s="24"/>
       <c r="M29" s="2"/>
@@ -30744,13 +30694,13 @@
     </row>
     <row r="30" spans="2:22" ht="26.1" customHeight="1">
       <c r="B30" s="22"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
       <c r="J30" s="25"/>
       <c r="K30" s="24"/>
       <c r="M30" s="2"/>
@@ -30759,9 +30709,9 @@
     </row>
     <row r="31" spans="2:22" ht="26.1" customHeight="1">
       <c r="B31" s="22"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="107"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="48" t="s">
         <v>33</v>
       </c>
@@ -30785,10 +30735,10 @@
       <c r="C32" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="117"/>
+      <c r="E32" s="108"/>
       <c r="F32" s="72" t="s">
         <v>58</v>
       </c>
@@ -30883,10 +30833,10 @@
     <row r="38" spans="2:19" ht="26.1" customHeight="1">
       <c r="B38" s="28"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="97" t="s">
+      <c r="D38" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="97"/>
+      <c r="E38" s="112"/>
       <c r="F38" s="68" t="s">
         <v>62</v>
       </c>
@@ -30913,20 +30863,20 @@
     </row>
     <row r="40" spans="2:19" ht="26.1" customHeight="1">
       <c r="B40" s="28"/>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="105"/>
-      <c r="F40" s="108" t="s">
+      <c r="E40" s="100"/>
+      <c r="F40" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="108" t="s">
+      <c r="G40" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="108" t="s">
+      <c r="H40" s="105" t="s">
         <v>38</v>
       </c>
       <c r="I40" s="23"/>
@@ -30935,21 +30885,21 @@
     </row>
     <row r="41" spans="2:19" ht="26.1" customHeight="1">
       <c r="B41" s="28"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="62"/>
     </row>
     <row r="42" spans="2:19" ht="26.1" customHeight="1">
       <c r="B42" s="28"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="107"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="48" t="s">
         <v>39</v>
       </c>
@@ -30969,10 +30919,10 @@
       <c r="C43" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="116" t="s">
+      <c r="D43" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="108"/>
       <c r="F43" s="72" t="s">
         <v>60</v>
       </c>
@@ -30990,8 +30940,8 @@
     <row r="44" spans="2:19" ht="26.1" customHeight="1">
       <c r="B44" s="28"/>
       <c r="C44" s="50"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="108"/>
       <c r="F44" s="72"/>
       <c r="G44" s="72"/>
       <c r="H44" s="72"/>
@@ -31017,11 +30967,11 @@
     <row r="46" spans="2:19" ht="26.1" customHeight="1">
       <c r="B46" s="28"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="119" t="s">
+      <c r="D46" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="122" t="s">
+      <c r="E46" s="109"/>
+      <c r="F46" s="97" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="36" t="s">
@@ -31152,9 +31102,9 @@
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="89"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
       <c r="K55" s="19"/>
@@ -31167,11 +31117,11 @@
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="90"/>
-      <c r="F56" s="121" t="s">
+      <c r="F56" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="19"/>
@@ -31376,21 +31326,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:E42"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:E18"/>
     <mergeCell ref="F16:F17"/>
@@ -31403,12 +31344,21 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:I4"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:E42"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
